--- a/slides/nuage.xlsx
+++ b/slides/nuage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c.frezier/IdeaProjects/save-the-world-octonauts/slides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36CFF796-FCBB-5A4E-BCDF-632A5363D2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBDD0AE-D803-A745-9184-351D4C934F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{20D7BD4A-DE08-2146-828D-AEEAF90C304D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Java</t>
   </si>
@@ -44,9 +44,6 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>Docker</t>
-  </si>
-  <si>
     <t>Réseau</t>
   </si>
   <si>
@@ -117,6 +114,24 @@
   </si>
   <si>
     <t>Bloodbowl</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Qwik</t>
+  </si>
+  <si>
+    <t>Containers</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Manga</t>
+  </si>
+  <si>
+    <t>Teams</t>
   </si>
 </sst>
 </file>
@@ -468,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91008E53-0AE0-F749-A8BD-E3ABBA2F96F0}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,255 +501,310 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
